--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06486949426309151</v>
+        <v>0.018579</v>
       </c>
       <c r="H2">
-        <v>0.06486949426309151</v>
+        <v>0.055737</v>
       </c>
       <c r="I2">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="J2">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N2">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P2">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q2">
-        <v>0.2442246178713505</v>
+        <v>0.079163793698</v>
       </c>
       <c r="R2">
-        <v>0.2442246178713505</v>
+        <v>0.712474143282</v>
       </c>
       <c r="S2">
-        <v>0.0429254544437615</v>
+        <v>0.008894559501912071</v>
       </c>
       <c r="T2">
-        <v>0.0429254544437615</v>
+        <v>0.008894559501912069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06486949426309151</v>
+        <v>0.018579</v>
       </c>
       <c r="H3">
-        <v>0.06486949426309151</v>
+        <v>0.055737</v>
       </c>
       <c r="I3">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="J3">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N3">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P3">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q3">
-        <v>3.069191952758392</v>
+        <v>0.884087084331</v>
       </c>
       <c r="R3">
-        <v>3.069191952758392</v>
+        <v>7.956783758979</v>
       </c>
       <c r="S3">
-        <v>0.5394479086325746</v>
+        <v>0.09933284913621693</v>
       </c>
       <c r="T3">
-        <v>0.5394479086325746</v>
+        <v>0.0993328491362169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06486949426309151</v>
+        <v>0.018579</v>
       </c>
       <c r="H4">
-        <v>0.06486949426309151</v>
+        <v>0.055737</v>
       </c>
       <c r="I4">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="J4">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N4">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P4">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q4">
-        <v>0.3570752649720181</v>
+        <v>0.103208630217</v>
       </c>
       <c r="R4">
-        <v>0.3570752649720181</v>
+        <v>0.928877671953</v>
       </c>
       <c r="S4">
-        <v>0.06276033166985857</v>
+        <v>0.0115961509636335</v>
       </c>
       <c r="T4">
-        <v>0.06276033166985857</v>
+        <v>0.0115961509636335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06486949426309151</v>
+        <v>0.018579</v>
       </c>
       <c r="H5">
-        <v>0.06486949426309151</v>
+        <v>0.055737</v>
       </c>
       <c r="I5">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="J5">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N5">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P5">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q5">
-        <v>0.4935562438180309</v>
+        <v>0.1425418038</v>
       </c>
       <c r="R5">
-        <v>0.4935562438180309</v>
+        <v>1.2828762342</v>
       </c>
       <c r="S5">
-        <v>0.08674852782697394</v>
+        <v>0.01601548506184093</v>
       </c>
       <c r="T5">
-        <v>0.08674852782697394</v>
+        <v>0.01601548506184092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06486949426309151</v>
+        <v>0.018579</v>
       </c>
       <c r="H6">
-        <v>0.06486949426309151</v>
+        <v>0.055737</v>
       </c>
       <c r="I6">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="J6">
-        <v>0.8118636217202307</v>
+        <v>0.1519646868933627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01492483899505</v>
+        <v>7.724970666666667</v>
       </c>
       <c r="N6">
-        <v>7.01492483899505</v>
+        <v>23.174912</v>
       </c>
       <c r="O6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="P6">
-        <v>0.09851580611235186</v>
+        <v>0.106114404335759</v>
       </c>
       <c r="Q6">
-        <v>0.4550546265992075</v>
+        <v>0.143522230016</v>
       </c>
       <c r="R6">
-        <v>0.4550546265992075</v>
+        <v>1.291700070144</v>
       </c>
       <c r="S6">
-        <v>0.07998139914706202</v>
+        <v>0.01612564222975931</v>
       </c>
       <c r="T6">
-        <v>0.07998139914706202</v>
+        <v>0.0161256422297593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0150324652872597</v>
+        <v>0.08670066666666666</v>
       </c>
       <c r="H7">
-        <v>0.0150324652872597</v>
+        <v>0.260102</v>
       </c>
       <c r="I7">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="J7">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76486082781604</v>
+        <v>4.260928666666667</v>
       </c>
       <c r="N7">
-        <v>3.76486082781604</v>
+        <v>12.782786</v>
       </c>
       <c r="O7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="P7">
-        <v>0.05287274031666574</v>
+        <v>0.05853043679913345</v>
       </c>
       <c r="Q7">
-        <v>0.05659513970550844</v>
+        <v>0.3694253560191111</v>
       </c>
       <c r="R7">
-        <v>0.05659513970550844</v>
+        <v>3.324828204172</v>
       </c>
       <c r="S7">
-        <v>0.009947285872904235</v>
+        <v>0.0415073060187368</v>
       </c>
       <c r="T7">
-        <v>0.009947285872904235</v>
+        <v>0.0415073060187368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0150324652872597</v>
+        <v>0.08670066666666666</v>
       </c>
       <c r="H8">
-        <v>0.0150324652872597</v>
+        <v>0.260102</v>
       </c>
       <c r="I8">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="J8">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.3133325243859</v>
+        <v>47.585289</v>
       </c>
       <c r="N8">
-        <v>47.3133325243859</v>
+        <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270807</v>
       </c>
       <c r="P8">
-        <v>0.6644563128589953</v>
+        <v>0.6536574461270805</v>
       </c>
       <c r="Q8">
-        <v>0.7112360287974064</v>
+        <v>4.125676279825999</v>
       </c>
       <c r="R8">
-        <v>0.7112360287974064</v>
+        <v>37.131086518434</v>
       </c>
       <c r="S8">
-        <v>0.1250084042264207</v>
+        <v>0.4635461672861527</v>
       </c>
       <c r="T8">
-        <v>0.1250084042264207</v>
+        <v>0.4635461672861526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0150324652872597</v>
+        <v>0.08670066666666666</v>
       </c>
       <c r="H9">
-        <v>0.0150324652872597</v>
+        <v>0.260102</v>
       </c>
       <c r="I9">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="J9">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.50451747818206</v>
+        <v>5.555122999999999</v>
       </c>
       <c r="N9">
-        <v>5.50451747818206</v>
+        <v>16.665369</v>
       </c>
       <c r="O9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014176</v>
       </c>
       <c r="P9">
-        <v>0.07730403234089711</v>
+        <v>0.07630819502014174</v>
       </c>
       <c r="Q9">
-        <v>0.08274646791388612</v>
+        <v>0.4816328675153332</v>
       </c>
       <c r="R9">
-        <v>0.08274646791388612</v>
+        <v>4.334695807638</v>
       </c>
       <c r="S9">
-        <v>0.01454370067103854</v>
+        <v>0.05411453895873479</v>
       </c>
       <c r="T9">
-        <v>0.01454370067103854</v>
+        <v>0.05411453895873478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0150324652872597</v>
+        <v>0.08670066666666666</v>
       </c>
       <c r="H10">
-        <v>0.0150324652872597</v>
+        <v>0.260102</v>
       </c>
       <c r="I10">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="J10">
-        <v>0.1881363782797693</v>
+        <v>0.7091576329967064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.60844907802599</v>
+        <v>7.6722</v>
       </c>
       <c r="N10">
-        <v>7.60844907802599</v>
+        <v>23.0166</v>
       </c>
       <c r="O10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="P10">
-        <v>0.1068511083710899</v>
+        <v>0.1053895177178852</v>
       </c>
       <c r="Q10">
-        <v>0.1143737466553088</v>
+        <v>0.6651848548</v>
       </c>
       <c r="R10">
-        <v>0.1143737466553088</v>
+        <v>5.9866636932</v>
       </c>
       <c r="S10">
-        <v>0.020102580544116</v>
+        <v>0.07473778092747993</v>
       </c>
       <c r="T10">
-        <v>0.020102580544116</v>
+        <v>0.07473778092747992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.08670066666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.260102</v>
+      </c>
+      <c r="I11">
+        <v>0.7091576329967064</v>
+      </c>
+      <c r="J11">
+        <v>0.7091576329967064</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.724970666666667</v>
+      </c>
+      <c r="N11">
+        <v>23.174912</v>
+      </c>
+      <c r="O11">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="P11">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="Q11">
+        <v>0.6697601067804444</v>
+      </c>
+      <c r="R11">
+        <v>6.027840961023999</v>
+      </c>
+      <c r="S11">
+        <v>0.07525183980560229</v>
+      </c>
+      <c r="T11">
+        <v>0.07525183980560228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.016979</v>
+      </c>
+      <c r="H12">
+        <v>0.050937</v>
+      </c>
+      <c r="I12">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="J12">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.260928666666667</v>
+      </c>
+      <c r="N12">
+        <v>12.782786</v>
+      </c>
+      <c r="O12">
+        <v>0.05853043679913345</v>
+      </c>
+      <c r="P12">
+        <v>0.05853043679913345</v>
+      </c>
+      <c r="Q12">
+        <v>0.07234630783133332</v>
+      </c>
+      <c r="R12">
+        <v>0.6511167704819999</v>
+      </c>
+      <c r="S12">
+        <v>0.00812857127848458</v>
+      </c>
+      <c r="T12">
+        <v>0.008128571278484579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.0150324652872597</v>
-      </c>
-      <c r="H11">
-        <v>0.0150324652872597</v>
-      </c>
-      <c r="I11">
-        <v>0.1881363782797693</v>
-      </c>
-      <c r="J11">
-        <v>0.1881363782797693</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.01492483899505</v>
-      </c>
-      <c r="N11">
-        <v>7.01492483899505</v>
-      </c>
-      <c r="O11">
-        <v>0.09851580611235186</v>
-      </c>
-      <c r="P11">
-        <v>0.09851580611235186</v>
-      </c>
-      <c r="Q11">
-        <v>0.1054516141349289</v>
-      </c>
-      <c r="R11">
-        <v>0.1054516141349289</v>
-      </c>
-      <c r="S11">
-        <v>0.01853440696528984</v>
-      </c>
-      <c r="T11">
-        <v>0.01853440696528984</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.016979</v>
+      </c>
+      <c r="H13">
+        <v>0.050937</v>
+      </c>
+      <c r="I13">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="J13">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.585289</v>
+      </c>
+      <c r="N13">
+        <v>142.755867</v>
+      </c>
+      <c r="O13">
+        <v>0.6536574461270807</v>
+      </c>
+      <c r="P13">
+        <v>0.6536574461270805</v>
+      </c>
+      <c r="Q13">
+        <v>0.8079506219309999</v>
+      </c>
+      <c r="R13">
+        <v>7.271555597378999</v>
+      </c>
+      <c r="S13">
+        <v>0.09077842970471106</v>
+      </c>
+      <c r="T13">
+        <v>0.09077842970471105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.016979</v>
+      </c>
+      <c r="H14">
+        <v>0.050937</v>
+      </c>
+      <c r="I14">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="J14">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.555122999999999</v>
+      </c>
+      <c r="N14">
+        <v>16.665369</v>
+      </c>
+      <c r="O14">
+        <v>0.07630819502014176</v>
+      </c>
+      <c r="P14">
+        <v>0.07630819502014174</v>
+      </c>
+      <c r="Q14">
+        <v>0.09432043341699997</v>
+      </c>
+      <c r="R14">
+        <v>0.8488839007529998</v>
+      </c>
+      <c r="S14">
+        <v>0.01059750509777346</v>
+      </c>
+      <c r="T14">
+        <v>0.01059750509777346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.016979</v>
+      </c>
+      <c r="H15">
+        <v>0.050937</v>
+      </c>
+      <c r="I15">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="J15">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.6722</v>
+      </c>
+      <c r="N15">
+        <v>23.0166</v>
+      </c>
+      <c r="O15">
+        <v>0.1053895177178852</v>
+      </c>
+      <c r="P15">
+        <v>0.1053895177178852</v>
+      </c>
+      <c r="Q15">
+        <v>0.1302662838</v>
+      </c>
+      <c r="R15">
+        <v>1.1723965542</v>
+      </c>
+      <c r="S15">
+        <v>0.01463625172856435</v>
+      </c>
+      <c r="T15">
+        <v>0.01463625172856435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.016979</v>
+      </c>
+      <c r="H16">
+        <v>0.050937</v>
+      </c>
+      <c r="I16">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="J16">
+        <v>0.1388776801099308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.724970666666667</v>
+      </c>
+      <c r="N16">
+        <v>23.174912</v>
+      </c>
+      <c r="O16">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="P16">
+        <v>0.106114404335759</v>
+      </c>
+      <c r="Q16">
+        <v>0.1311622769493333</v>
+      </c>
+      <c r="R16">
+        <v>1.180460492544</v>
+      </c>
+      <c r="S16">
+        <v>0.0147369223003974</v>
+      </c>
+      <c r="T16">
+        <v>0.0147369223003974</v>
       </c>
     </row>
   </sheetData>
